--- a/data/trans_orig/CANT_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Clase-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad media de tabaco consumido al día</t>
+          <t>Cantidad media de tabaco consumido al día (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CANT_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Clase-trans_orig.xlsx
@@ -632,29 +632,29 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1,34</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1,3</t>
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,91</t>
+          <t>1,08; 2,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,29</t>
+          <t>1,73; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,03</t>
+          <t>0,89; 1,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,81</t>
+          <t>0,99; 1,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,82</t>
+          <t>1,13; 1,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,44</t>
+          <t>1,51; 2,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,81</t>
+          <t>0,9; 2,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,24</t>
+          <t>1,94; 3,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,07</t>
+          <t>1,02; 1,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,35</t>
+          <t>1,38; 2,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,8</t>
+          <t>1,07; 1,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,68</t>
+          <t>1,81; 2,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,58</t>
+          <t>2,07; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,8</t>
+          <t>0,7; 4,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,7</t>
+          <t>1,06; 2,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,43</t>
+          <t>1,44; 3,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,46</t>
+          <t>1,97; 3,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,08</t>
+          <t>0,71; 4,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,52</t>
+          <t>2,24; 3,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,31</t>
+          <t>3,8; 5,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,52</t>
+          <t>1,49; 2,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,96</t>
+          <t>0,78; 2,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 2,81</t>
+          <t>1,98; 2,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,94</t>
+          <t>1,78; 3,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,13</t>
+          <t>1,92; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,52</t>
+          <t>3,38; 5,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,83</t>
+          <t>0,93; 1,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,86</t>
+          <t>1,34; 2,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,42</t>
+          <t>1,43; 2,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,47</t>
+          <t>2,02; 3,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,44</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,89</t>
+          <t>0,4; 2,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,58</t>
+          <t>0,28; 1,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,87</t>
+          <t>0,28; 1,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,46</t>
+          <t>0,85; 1,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,91</t>
+          <t>0,39; 1,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,32</t>
+          <t>0,78; 1,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,33</t>
+          <t>1,91; 2,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,47</t>
+          <t>1,87; 3,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,66</t>
+          <t>1,18; 1,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,04</t>
+          <t>1,2; 1,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 1,89</t>
+          <t>1,58; 1,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,63</t>
+          <t>1,83; 2,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_orig/CANT_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Clase-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,63</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,26</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>1,43</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,75; 3,44</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 2,4</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,08; 2,43</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 3,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 2,4</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,93; 1,66</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 1,78</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,89; 1,66</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 1,76</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 1,78</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>1,48; 2,41</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 1,87</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1,13; 1,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 2,41</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 1,87</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,42</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1,39</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1,41</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,86; 3,23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 3,05</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,9; 2,23</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 3,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 3,05</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,41; 2,39</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 2,69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,02; 1,92</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 2,36</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 2,69</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1,79; 2,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 2,68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1,07; 1,89</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 2,74</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 2,68</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,75</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,71</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,48</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,21; 5,44</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3,06; 4,67</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2,07; 3,75</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 4,8</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 4,67</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,31; 3,15</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 3,1</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1,06; 2,7</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 3,34</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 3,1</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,88; 4,44</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 3,96</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,97; 3,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 4,01</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 3,96</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,8</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,92</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,35</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,13</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,63; 5,14</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 4,83</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,24; 3,49</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 5,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 4,83</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>2,41; 3,3</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 2,76</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,49; 2,49</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 2,96</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,76</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,23; 4,11</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 3,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,98; 2,78</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 3,87</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 3,53</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,71</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1,32</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1,83</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,37; 5,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 4,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1,92; 3,78</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 5,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 4,9</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>2,09; 3,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 2,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0,93; 1,95</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 2,83</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 2,98</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>2,77; 3,71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 3,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1,43; 2,35</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 3,52</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 3,61</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,57</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,69</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,28; 1,54</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 6,87</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,4; 2,11</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 1,52</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 6,87</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>0,81; 1,4</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,11</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0,28; 1,34</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 1,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,11</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>0,75; 1,27</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,59</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0,39; 1,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 1,31</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 3,59</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>2,19</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>1,37</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>1,76</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,99; 3,69</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 3,42</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,91; 2,53</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 3,46</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 3,42</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>1,75; 2,12</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 2,2</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>1,18; 1,59</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 1,99</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 2,2</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>2,42; 2,78</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 2,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>1,58; 1,95</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,63</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 2,74</t>
         </is>
       </c>
     </row>
